--- a/data/amazon_url_5_review_data.xlsx
+++ b/data/amazon_url_5_review_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,47 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>User_Star_rating</t>
+          <t>productID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Review_content</t>
+          <t>prodSiteID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Reviewer_name</t>
+          <t>ReviewID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Review_title</t>
+          <t>review_header</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Helpful_votes</t>
+          <t>reviewer_name</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Verified_purchase</t>
+          <t>review_content</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>review_star_rating</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>review_helpful_votes</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>verified_purchase</t>
         </is>
       </c>
     </row>
@@ -471,25 +486,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Great Product</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>I’ve always used the Microsoft software and it has always been the best. The 365 product is a little cumbersome to install but the result is worth the effort.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Great Product</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2 people found this helpful</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>3 people found this helpful</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -501,25 +527,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>It’s 365 and it Works!</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>JB Smith</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Gotta have 365 or similar in today’s world and price here was competitive and easy to get.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>JB Smith</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>It’s 365 and it Works!</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -531,25 +568,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Microsoft is a leading company offering all of the software needed for yor family.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Frank Grevera</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Everyday essentials for day to day at home or work related information. I like being able to access my stored files from anywhere if I choose.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Frank Grevera</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Microsoft is a leading company offering all of the software needed for yor family.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0 helpful votes</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>One person found this helpful</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -557,29 +605,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Price unexpectedly jumped from $59.99 to $99.99/year (plus tax). Same software as before.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D. Hannan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>I purchased a subscription for $59.99/year. It renewed a couple times at that rate. My upcoming renewal jumped in price by $40 more! The product has not improved that much, if at all. I hope upcoming renewals don't keep randomly jumping in price -- jumping at ludicrous speed, so to speak. This is software, not gasoline or eggs. $eriously. I like using MS Office. I don't like being fleeced.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>D. Hannan</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Price unexpectedly jumped from $59.99 to $99.99/year (plus tax). Same software as before.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -590,6 +649,24 @@
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Great value at $59.99, but timing a factor if already a subscriber</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fletch</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Update (one day after original purchase for $59.99):
 First, I see two reviews that said that it did not extend their current subscription with Microsoft but instead created a new separate subscription (which would be terrible). For me, it did extend my current subscription. I logged into Microsoft, went to the "redeem.microsoft.com" address, made sure my login still showed on that page, and then entered the code. The bad thing about this situation is that not knowng what will happen would make anyone reluctant to buy this subscription on Amazon regardless of price. At the $99.99 price, I would definitely not buy this on Amazon.
@@ -604,22 +681,15 @@
 If you are a new subscriber for MS Office 365, none of these caveats apply; at $59.99 its a great deal.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Fletch</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Great value at $59.99, but timing a factor if already a subscriber</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>15 people found this helpful</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -631,25 +701,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EXCELENTE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FELIX ALBERTO</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>EXCELENTE LO RECOMIENDO</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FELIX ALBERTO</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EXCELENTE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -657,9 +738,27 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Inaccessible</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Takoma Park Baptist Church</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>After downloading this software, I was unable to access it because creating a password took me in circles.
 After I created my account Outlook email, I was instructed to create a password, but the password never worked. To rectify this, I clicked on "forgot password" (that I never really had) and I was a taken to a form to fill out, when I filled in answers to the questions, it said it could not verify me as the owner.
@@ -671,22 +770,15 @@
 Thank you</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Takoma Park Baptist Church</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Microsoft 365 Inaccessible</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>9 people found this helpful</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -698,25 +790,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>should be 2 year subscription for the price</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dean King</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>works like it should</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Dean King</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>should be 2 year subscription for the price</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -724,9 +827,27 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Unbelievably Handy Tool, but Get Ready to Learn How to Use It</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Kindle Customer</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Great product, overall.
 Pros:
@@ -749,22 +870,15 @@
 All in all, I’m a big fan of the Office 365 system and I intend to keep using it to organize my busy, chaotic life. But I had to take a star off because it feels like I either have to stumble along until I figure things out or I have to work too hard to learn how to use all this. I almost took off two stars, but as a whole feature set, it’s just so damn handy I can’t stay mad!</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Kindle Customer</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Unbelievably Handy Tool, but Get Ready to Learn How to Use It</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>22 people found this helpful</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -772,29 +886,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Worked fine.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Donald Harried</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Worked fine.</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>4</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Worked fine.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Donald Harried</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Worked fine.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -806,25 +931,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fits well in room.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Michael Chesley</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>For the new home office</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Michael Chesley</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Fits well in room.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -836,25 +972,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Renewal - Good for now</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dan0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>A needed renewal for now, will go for cheaper and maybe different OS next time</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Dan0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Microsoft 365 Renewal - Good for now</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -862,9 +1009,27 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Amazon does, and does not, manage for you (great buy though!)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ZDavidN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>The product is as stated - Microsoft Office Home, 6 person license...but the exact workings were a bit unclear.
 A back and forth with Customer service representatives at Amazon did not help very much. I finally got lucky, and tinkered - other forums were a bit more useful.
@@ -882,22 +1047,15 @@
 The answer: Amazon occasionally will have specials of "Put $300 in your cart for a $50 gift card" or "Microsoft Office + gift card for the price of Microsoft Office". And yes, Amazon does run these specials at odd intervals, it is a good idea to use Amazon's plans and offers. And, you get 5% back with the Amazon Store Card, bringing the price down that much more.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ZDavidN</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Amazon does, and does not, manage for you (great buy though!)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>104 people found this helpful</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -909,25 +1067,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fast delivery</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Jer-Yuan</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>I like it</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Jer-Yuan</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Fast delivery</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -939,25 +1108,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Incredible Amazon support, product is great, but Microsoft support SUCKS!</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Julie A. Crego</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Bought this to upgrade my single use license from Amazon. Asked Best Buy to cancel my single user license. But Best Buy made cancellation at end of month. So I learned that I could not install using the same email as you can only have 1 license per an email address. I wanted to keep the same email as it's how you log onto your One Drive, and I bought the new license to share with family and they needed it now. Microsoft said they'd help me set up on a "temporary" email and when Best Buy released the original email they'd help me to transfer from temp to original email. Except they lied. When I returned to transfer to my original email they said we can't do that. And sent me to Amazon. Amazon said they cannot make that kind of change only Microsoft could They offered to contact Microsoft and help me. They stayed involved until the bitter end. Microsoft said oops, sorry, very sorry. But sorry did nothing for my new dilemma. I said they could at least help me move my data from the old One Drive to the new. They sent me a link! A link which states there is no automated way, this must be done manually. Expect to set aside several hours! The great and powerful Microsoft would not help, I don't believe they cannot help. Well I had to move my data because Microsoft kept sending emails about paying for the One Drive space or else. That my data would be frozen until I don't know. I wasn't taking any chances with what would happen to my data. This was all because Microsoft lied about using a "temporary" email. All I have now is to warn others about how unhelpful Microsoft can be. No surprise there. But you may not know that you cannot change the email account your license is tied to. However I really wanted to commend Amazon as they took the time to actually help me dispute having no blame. Microsoft offered this advice, I could uninstall the software, return the purchase, repurchase the software, have my family also uninstall Office, then start all over again. Beware.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Julie A. Crego</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Incredible Amazon support, product is great, but Microsoft support SUCKS!</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>61 people found this helpful</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -965,9 +1145,27 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Bought twice - renewal didn't happen for second purchase. Updated 12/29/2020</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Erwin</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Updated 12/29/2020
 Resovled, but what a PITA! Original review was made while waiting on Microsoft support chat. Instead of 2 hours, I waited 4 hours before a Microsoft support representative came on the chat. He was apologetic and very sincere in troubleshooting the problem and figured it out after about an half an hour. He said I needed to upload some info and Microsoft will contact me about the status. After uploading proof of purchase and a few emails to Microsoft reminding them of my situation, it was resolved more than a week later. Issue is since I had a previous active Microsoft 365 family and activated the new Microsoft license thinking it would just continue after the previous one expires, it actually deactivated all licenses once that first one expired. So, if you have an existing valid license, let it expire first before activating the new one. Now I know. 3 stars since there is no info about this and many people probably renew their MS 365 Family license the same way and have no way of knowing this issue.
@@ -975,22 +1173,15 @@
 Bought last year and needed Microsoft support to get activated. Cumbersome, but they were able to help. Bought again this year (2020) and entered key into my Microsoft account. That was before my subscription purchased last year was to expire and I thought it would just rollover to the new subscription. Nope. All keys were deactivated. Got on Microsoft support and first level couldn't resolve issue and needed to transfer to another "Support team member". Waited 2 hours on a chat. Never heard from next level of Microsoft Support. Just frustrating since I know I have to go through the same process over and over until someone competent figures it out.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Erwin</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Bought twice - renewal didn't happen for second purchase. Updated 12/29/2020</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>3 people found this helpful</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -998,29 +1189,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>More difficult to use than earlier versions.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Doug</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I have been using word processing programs and spreadsheets since the mid-eighties. Microsoft Office programs are getting more difficult to use with each version. And if you are offline good luck getting any help. I can't even find out what version I'm running since there is no about tab. For most of what I do WordPad is much easier to use, or any of the free office suites available. You want to change column or row headings in Excel? Quatro Pro from the early 90s was easier and more intuitive. The last acceptable version of MS Office was in 2007, and MS Office 98 was probably the best version for most people. Unfortunately you are forced to upgrade when you get a new PC or OS.</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>2</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>I have been using word processing programs and spreadsheets since the mid-eighties. Microsoft Office programs are getting more difficult to use with each version. And if you are offline good luck getting any help. I can't even find out what version I'm running since there is no about tab. For most of what I do WordPad is much easier to use, or any of the free office suites available. You want to change column or row headings in Excel? Quatro Pro from the early 90s was easier and more intuitive. The last acceptable version of MS Office was in 2007, and MS Office 98 was probably the best version for most people. Unfortunately you are forced to upgrade when you get a new PC or OS.</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Doug</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>More difficult to use than earlier versions.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1032,26 +1234,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MS 365 Family subscription vs. Office ?</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Ken H.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>At first I hated the idea of a subscription each year -- then when I could install on PCs, MacBooks, I-Pads and my fire table -- and then again everything for my wife. Over the years, I have purchased MANY Office programs and I like the idea that purchasing Office for big dollars will not be required again.
 You can opt for auto renewal or maybe shop around for a 15-month subscription with a small discount.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Ken H.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>MS 365 Family subscription vs. Office ?</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1063,26 +1276,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Have been ordering this product for 3 years. I
 have had no problems witb getting and accessing software</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Microsoft</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1094,26 +1318,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Works as expected</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ERNIE S.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>The software key is exactly as advertised.
 We will purchase again as the need arises.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ERNIE S.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Works as expected</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1121,9 +1356,27 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Product continually fails to load, save documents, confuses itself</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CpaCoffee</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Purchased because desktop ended and this seemed a good value.
 In the first week -
@@ -1132,22 +1385,15 @@
 Program often confuses itself and locks up.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CpaCoffee</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Product continually fails to load, save documents, confuses itself</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1155,31 +1401,42 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Not much of a choice, actually</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>WinterCamper</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Microsoft's decision to require annual subscriptions for this suite has been lambasted by enough others that I'll leave that disappointment alone. I bought this through Amazon for the few dollars in savings off the standard $99 pricetag. Doing that, however, means your order is now stored in the Amazon Subscriptions folder. To "Activate" the subscription Amazon asks you to "connect" your Microsoft account.
 I try to avoid connecting different companies as often as I can. (Regardless of how "simpler" it might make things, I avoid automatic 'sign-ins' using Facebook or Google accounts for privacy, security, and other reasons.) Instead, I simply copied down the Activation Key in the Amazon Subscriptions receipt folder and entered it manually into the window on the Microsoft website where I was re-activating my MS 365 subscription.
 The 3 stars refers to the pricing and need for "connecting" accounts on Amazon's part. Microsoft 365 itself probably rates at least 4 stars. At this point, however, a heavier computer user really has no choice but to bite the bullet and get it. It's getting to be as much a distasteful necessity of life as having to get a Gmail account for day-to-day navigation in the digital world.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>WinterCamper</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Not much of a choice, actually</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>5 people found this helpful</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1187,29 +1444,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Works Fine, but..</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>I thought that there was a $40 gift card with this when I ordered it. It is not offered now. No gift ever arrived card.</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>4</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>I thought that there was a $40 gift card with this when I ordered it. It is not offered now. No gift ever arrived card.</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>MC</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Works Fine, but..</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1217,29 +1485,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>You buy ti because you have to, not because you love it.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Kevin F</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Still like Word Perfect better, but reality is that you can't work very well without Office 365. It's okay, but it's not great. And not a fan of the subscription model of software.</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>3</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Still like Word Perfect better, but reality is that you can't work very well without Office 365. It's okay, but it's not great. And not a fan of the subscription model of software.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Kevin F</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>You buy ti because you have to, not because you love it.</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1251,25 +1530,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Heath rudolphi</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>All right works like it should</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Heath rudolphi</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Review</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1281,25 +1571,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Product use as expected.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Ms. Lee</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>This was a great buy! I plan to buy again!</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Ms. Lee</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Product use as expected.</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1311,25 +1612,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MS 365 Family</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Rebecca Holdorf</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>Great product. Backed by Microsoft and by Amazon. Can't go wrong with that, and I could use my gift cards on Amazon.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Rebecca Holdorf</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>MS 365 Family</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1341,25 +1653,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Good value</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Doug</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>Good value with $20 off</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Doug</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Good value</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1371,25 +1694,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>EXCELENTE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>PRODUCTO ORIGINAL, RECOMENDADO</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Carlos</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>EXCELENTE</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1397,29 +1731,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Beware of Instability and Spying Issues</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Marv</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Used for work and home projects. Be prepared for incidents of instability, which lead to extreme frustration with the product. One would think that after so many years of offering these products, they would be stabilized, but no. Part of the problem is continual intense spying and privacy invasion by Microsoft Edge, which contributes its own instability to the process.</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>4</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Used for work and home projects. Be prepared for incidents of instability, which lead to extreme frustration with the product. One would think that after so many years of offering these products, they would be stabilized, but no. Part of the problem is continual intense spying and privacy invasion by Microsoft Edge, which contributes its own instability to the process.</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Marv</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Beware of Instability and Spying Issues</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>5 people found this helpful</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1427,29 +1772,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>As expected but...</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Kathi Rowley</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>I can't find any license number. It installed super easy but when the computer crashed I bought another one instead of renewing just so I could install.</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
         <v>4</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>I can't find any license number. It installed super easy but when the computer crashed I bought another one instead of renewing just so I could install.</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Kathi Rowley</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>As expected but...</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>3 people found this helpful</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1457,29 +1813,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Do NOT lose access to the email account you originally use to activate this package.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>flared0ne</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>My wife's PC died, and trying to put this package onto the replacement PC is NOT working. The first authorizing email address was canceled/closed when I moved. The most-likely address I would have used always fails. Be VERY cautious in expecting to get this onto multiple platforms for a family. UPDATING: I canceled that original package, purchased the equivalent (@$99 instead of the previous $59, but of some urgency). PROBLEM is, when I submit the license code, it asks me to specify my "region" (a "Where in the World is Carmen San Diego" kinda-thing) AND it only offers one choice of "Germany" (and says I will be forever unable to CHANGE it once I move past). Microsoft Support asked me to enable "remote access" to figure out the problem (THAT's not happening) or to give them the license key to inspect (ditto)... Have to ask Amazon if anyone else reported this, is it possible the package for sale here is supposed to be Germany???</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>2</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>My wife's PC died, and trying to put this package onto the replacement PC is NOT working. The first authorizing email address was canceled/closed when I moved. The most-likely address I would have used always fails. Be VERY cautious in expecting to get this onto multiple platforms for a family. UPDATING: I canceled that original package, purchased the equivalent (@$99 instead of the previous $59, but of some urgency). PROBLEM is, when I submit the license code, it asks me to specify my "region" (a "Where in the World is Carmen San Diego" kinda-thing) AND it only offers one choice of "Germany" (and says I will be forever unable to CHANGE it once I move past). Microsoft Support asked me to enable "remote access" to figure out the problem (THAT's not happening) or to give them the license key to inspect (ditto)... Have to ask Amazon if anyone else reported this, is it possible the package for sale here is supposed to be Germany???</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>flared0ne</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Do NOT lose access to the email account you originally use to activate this package.</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1487,29 +1854,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Hard to add people</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Cagramps</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>I love all of the office apps but can't sign up new members at all.</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>2</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>I love all of the office apps but can't sign up new members at all.</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Cagramps</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Hard to add people</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1517,9 +1895,27 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>34</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>If you use a previous version of OneNote, read this before upgrading to Office 365</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NHShopper</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>OneNote is my favorite Office app and I have more than a few years of info stored in it. I purchased Office 365 without knowing all the significant changes Microsoft made in this subscription-based product.
 OneNote for Windows 10 (the version included in Office 365) is a shell of what it used to be. Why is it that Microsoft continues to ruin what's working well? Here are my two main complaints about the new version.
@@ -1530,22 +1926,15 @@
 I use all the Office programs, including MS Access. They might have been fine in Office 365 (it only stayed on my computer 15 minutes so who knows) but I'm not willing to live with a compromised OneNote.</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>NHShopper</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>If you use a previous version of OneNote, read this before upgrading to Office 365</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>17 people found this helpful</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1553,29 +1942,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>35</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>YOU CURRENTLY CANNOT USE OFFICE 365 WITH IMAP ACCOUNTS!</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>R. Powlus</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>I am a former IT director, and I can't get an IMAP account to work on the New Outlook. I have been trying off and on for 3 days. I fill out the IMAP screen and the CONTINUE button is dimmed. I try other methods, and they bring back this this screen. Microsoft evidently only wants users to have Microsoft emails. According to the MS forum " the new Outlook for Windows does not support IMAP accounts yet. This means that you cannot add your email account from Yahoo!, iCloud, or other providers that use IMAP protocols to the new Outlook app. The new Outlook for Windows currently supports Exchange-backed Microsoft 365 work or school accounts, Outlook.com accounts, and Gmail accounts.".</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
         <v>1</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>I am a former IT director, and I can't get an IMAP account to work on the New Outlook. I have been trying off and on for 3 days. I fill out the IMAP screen and the CONTINUE button is dimmed. I try other methods, and they bring back this this screen. Microsoft evidently only wants users to have Microsoft emails. According to the MS forum " the new Outlook for Windows does not support IMAP accounts yet. This means that you cannot add your email account from Yahoo!, iCloud, or other providers that use IMAP protocols to the new Outlook app. The new Outlook for Windows currently supports Exchange-backed Microsoft 365 work or school accounts, Outlook.com accounts, and Gmail accounts.".</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>R. Powlus</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>YOU CURRENTLY CANNOT USE OFFICE 365 WITH IMAP ACCOUNTS!</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1583,29 +1983,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>36</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Family | 12-Month Subscription, buying on AMAZON</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Richard Pawloski</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>This is a tough one because Microsoft 365 is a good all around home/office software that turns out to be immersed in an avalanche of constant marketing hype and misleading web page menu's. I simply bought a new HP LapTop and received it quickly by AMAZON and purchased Office 365 for it. (1) in the AMAZON listing of purchases there is no way you can get to any Microsoft site to literally find and then install your purchase. All they want you to do is buy another one and I bought a second one and now I am stuck. (2) after hours of frustrating confusion and inability to understand what the hell the menu's were talking about I wandered into the iCloud. Now everything takes new ID's and Passwords and then an iPhone to check - I didn't want any of that just the damn Office 365. After a day and when I started setting up my new HP laptop I started to receive emails and one did show me a "Download Now" button which I took and failed, then unable to find a phone number for Microsoft Goggle helped me and after several transfers from computers a human in the Philippines arrived who within 15 minutes had me all straightened out - so three cheers for him (Nick if you run across him) but he needs to be the CEO of Microsoft not in the Philippines making below min wage with a college degree. The way things are - in general despite a good software - things suck! and I am out 100 bucks.....</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
         <v>1</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>This is a tough one because Microsoft 365 is a good all around home/office software that turns out to be immersed in an avalanche of constant marketing hype and misleading web page menu's. I simply bought a new HP LapTop and received it quickly by AMAZON and purchased Office 365 for it. (1) in the AMAZON listing of purchases there is no way you can get to any Microsoft site to literally find and then install your purchase. All they want you to do is buy another one and I bought a second one and now I am stuck. (2) after hours of frustrating confusion and inability to understand what the hell the menu's were talking about I wandered into the iCloud. Now everything takes new ID's and Passwords and then an iPhone to check - I didn't want any of that just the damn Office 365. After a day and when I started setting up my new HP laptop I started to receive emails and one did show me a "Download Now" button which I took and failed, then unable to find a phone number for Microsoft Goggle helped me and after several transfers from computers a human in the Philippines arrived who within 15 minutes had me all straightened out - so three cheers for him (Nick if you run across him) but he needs to be the CEO of Microsoft not in the Philippines making below min wage with a college degree. The way things are - in general despite a good software - things suck! and I am out 100 bucks.....</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Richard Pawloski</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Microsoft 365 Family | 12-Month Subscription, buying on AMAZON</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>6 people found this helpful</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1613,29 +2024,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>37</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tech support?</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>It's a great price and the product is as represented EXCEPT the advertised Tech Support. Had an issue with the original download (computer crashed - not the fault of download but it was unsuccessful). Subscription would not allow the successful download as product code had "been used". However, used chat on Amazon and it was taken care of. But, even Amazon chat didn't know how to access the advertised "tech support". Great thing..... Amazon did stand behind the product!</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>4</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>It's a great price and the product is as represented EXCEPT the advertised Tech Support. Had an issue with the original download (computer crashed - not the fault of download but it was unsuccessful). Subscription would not allow the successful download as product code had "been used". However, used chat on Amazon and it was taken care of. But, even Amazon chat didn't know how to access the advertised "tech support". Great thing..... Amazon did stand behind the product!</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Tech support?</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1643,29 +2065,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>38</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>DO NOT BUY-ACCOUNT CONTROL IS MESSED UP</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>rkumono</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>If you buy this way from Amazon, you can no longer control or view your account correctly through your Microsoft Account. This is Amazon taking over and it severely messes up your ability to control your own account.</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
         <v>1</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>If you buy this way from Amazon, you can no longer control or view your account correctly through your Microsoft Account. This is Amazon taking over and it severely messes up your ability to control your own account.</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>rkumono</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>DO NOT BUY-ACCOUNT CONTROL IS MESSED UP</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1673,29 +2106,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>39</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>THERE IS NO ONE TO TALK TO FOR A PROBLEM!!!!!</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Pamp</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I don't want my files to sync to OneDrive but there is no way to let my files save on my personal computer. I have tried for the last 1 1/2 hours to find someone to help and they have no one to talk to. Their website is useless. I am done with MS products.</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
         <v>1</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>I don't want my files to sync to OneDrive but there is no way to let my files save on my personal computer. I have tried for the last 1 1/2 hours to find someone to help and they have no one to talk to. Their website is useless. I am done with MS products.</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Pamp</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>THERE IS NO ONE TO TALK TO FOR A PROBLEM!!!!!</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1703,29 +2147,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>From recipe cards to finances; this program has something for everyone</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>JC</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I have been using 365 for about 4 years now. It is a good program with a lot of features. I wish there were more templates in excel and word. It seems like I cannot always find the template I am looking for. I use it just about every day. From making cross stitch patterns in excel to managing my finances. If I have a problem it is easy to find a video on you tube for assistance.</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
         <v>4</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>I have been using 365 for about 4 years now. It is a good program with a lot of features. I wish there were more templates in excel and word. It seems like I cannot always find the template I am looking for. I use it just about every day. From making cross stitch patterns in excel to managing my finances. If I have a problem it is easy to find a video on you tube for assistance.</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>JC</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>From recipe cards to finances; this program has something for everyone</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1737,25 +2192,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>41</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Take you time and Follow the instructions</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>G.G. Miller</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>So-far, so-good. (Purchased 11 days ago) I have a lot to learn. This was a BIG decision, for me. Take your time and Follow the instructions. The download went great. In the middle of loading MS 365, Windows 10 wanted to do an upgrade that would take a few moments. (Not sure how many moments in 5 + or - hours) I am still happy with download process of MS 365. I had been running Office 2007, so with the upgrades and the Cloud storage, it will be quite some time before I feel confident again. I will recommend Office 365 to my family and friends.</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>G.G. Miller</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Take you time and Follow the instructions</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>3 people found this helpful</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1763,29 +2229,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>42</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Difficulty locating the installation key</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Hank Skelton</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>It took me hours to figure out how to find the installation key - in fact I only found it by accident. Why couldn't they just send it to me in a separate message like they used to?</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
         <v>4</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>It took me hours to figure out how to find the installation key - in fact I only found it by accident. Why couldn't they just send it to me in a separate message like they used to?</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Hank Skelton</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Difficulty locating the installation key</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1797,26 +2274,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>43</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Don’t panic - any existing paid time will not be lost</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>shihchiun</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>If you’re like me you’re going to redeem the code you get and then check the subscription end date. At first, it will be the current date plus a year, but after a few minutes it will update to include any existing subscription time you had.
 This works exactly the same as buying a subscription from Microsoft directly, except the payment aspects are handled by Amazon.</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>shihchiun</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Don’t panic - any existing paid time will not be lost</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1824,29 +2312,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>44</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Same ole same ole.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>You got to have Microsoft office to utilize you computer and communicate your ideas with other people. I'd rather just buy a copy and not a subscription but the way things are priced now days that's over for now at least. I gave it four stars because Microsoft has done little to improve any of these programs. Most things are different, not better. Sharing this subscription with 6 people works out great for our family.</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
         <v>4</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>You got to have Microsoft office to utilize you computer and communicate your ideas with other people. I'd rather just buy a copy and not a subscription but the way things are priced now days that's over for now at least. I gave it four stars because Microsoft has done little to improve any of these programs. Most things are different, not better. Sharing this subscription with 6 people works out great for our family.</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Same ole same ole.</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1854,9 +2353,27 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>45</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>This license / download BIT IS NUISANCE! I want a CD and Manual! Excel has gone MIA!</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>PJ</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>I have been using Excel AND Macs since day 1. I was a consultant / programmer prior to the Mac rollout, and when Word, PowerPoint, and Excel came out for Macs I had them on day 1. For decades I taught college students and faculty how to use Microsoft software on their computers.
 Open the box, take out the disc/s, put them in and click Install, then Confirm, Agree, and so forth, and that's that. Stuck? Click Help or open the manual, or read the user-friendly little "getting started" and "how to" handouts that i wrote. Or come to my office or call me and get in person help from me.
@@ -1864,22 +2381,15 @@
 This is Bovine Droppings! I paid for it, and I want it in my hot little hands and on my hard drive ready to use! Where's a phone number to talk to a real person? I'm a Mac expert and former consultant, if I'm having these problem what about a newbie?</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>PJ</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>This license / download BIT IS NUISANCE! I want a CD and Manual! Excel has gone MIA!</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>9 people found this helpful</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1887,29 +2397,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>46</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Disappointed with Windows 10 Word for Windows</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Daniel Krippene</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>I've been a lifelong user of Word, and owned the older versions, ending with Office 2007. The newer Windows 10 decided to make older versions obsolete by putting me through a long boot process to "reconfigure" Ver. 2007. Deciding I'd had enough of it, I sucked up and bought the newest Word Office 365. It takes almost as long to boot, which I assume requires the program to access the web. The Word program is okay (despite lags in response when using Thesaurus or Dictionary, or even finding a file), the Excel program had been changed so much, I find myself still using the 2007 version. Thank you Microsoft for making pay for a new program that forces me to cough up a $100 every year now.</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
         <v>3</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>I've been a lifelong user of Word, and owned the older versions, ending with Office 2007. The newer Windows 10 decided to make older versions obsolete by putting me through a long boot process to "reconfigure" Ver. 2007. Deciding I'd had enough of it, I sucked up and bought the newest Word Office 365. It takes almost as long to boot, which I assume requires the program to access the web. The Word program is okay (despite lags in response when using Thesaurus or Dictionary, or even finding a file), the Excel program had been changed so much, I find myself still using the 2007 version. Thank you Microsoft for making pay for a new program that forces me to cough up a $100 every year now.</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Daniel Krippene</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Disappointed with Windows 10 Word for Windows</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>7 people found this helpful</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1921,25 +2442,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>47</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Very good software package. All excellent applications in one package</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Adrian</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>MS 365 is a great package of software. Put it in 5 PCs.</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Adrian</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Very good software package. All excellent applications in one package</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1947,29 +2479,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>48</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Great so far</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Carol Taylor</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I read many of the reviews. Was a bit nervous based on some of the feedback. i had NO problem. The download was VERY easy and everything has worked as it should. I haven't tried to share a license yet so can't give a 5 since I dont know how that will go. So far, I would definitely recommend this product.</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>I read many of the reviews. Was a bit nervous based on some of the feedback. i had NO problem. The download was VERY easy and everything has worked as it should. I haven't tried to share a license yet so can't give a 5 since I dont know how that will go. So far, I would definitely recommend this product.</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Carol Taylor</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Great so far</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -1981,25 +2524,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>49</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Good product I wish it wasn't subscription</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Marlene Kran</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>I don't particularly appreciate being forced to go on a subscription basis for my Microsoft office software. However, the fact that I could share it with several individuals and his usability on the road make it a good value. I often find myself on the road and having to switch between computers, and being able to access my materials online is extremely useful</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Marlene Kran</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Good product I wish it wasn't subscription</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2007,29 +2561,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>50</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Worthless!</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Pastor Martinez</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Worthless</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
         <v>1</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Worthless</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Pastor Martinez</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Worthless!</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2037,29 +2602,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>51</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Obviously we only bought it because we had no choice</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>HU7</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Microsoft creates all kinds of obstacles. You create a word file, then you open it again five minutes later, and it's asking for a product key. It's nuts, extremely frustrating, and naturally, because we're dealing with a monopoly, there's no other choice. Not to mention, the office today is worse than it was ten or even fifteen years ago. More is not always better - the program has gotten so grotesquely over-wrought that it's no longer fun to work with. Everything sucks.</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
         <v>1</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Microsoft creates all kinds of obstacles. You create a word file, then you open it again five minutes later, and it's asking for a product key. It's nuts, extremely frustrating, and naturally, because we're dealing with a monopoly, there's no other choice. Not to mention, the office today is worse than it was ten or even fifteen years ago. More is not always better - the program has gotten so grotesquely over-wrought that it's no longer fun to work with. Everything sucks.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>HU7</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Obviously we only bought it because we had no choice</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2071,25 +2647,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>52</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Office 365 extraordinaire</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>H. Staton</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>Office 365 for Mac very closely resembles the Microsoft Office I used for many years on Windows. If one offering is richer than the other I cannot say. I can say that what I use it for, it provides probably the best solution out there and I don't see any missing pieces to that detract from being able to say that the offering is complete.</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>H. Staton</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Office 365 extraordinaire</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2097,29 +2684,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>53</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Beware - No longer extends current subscription</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Kathy McGlone</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Family is a good deal. And on-sale it's a steal. However, these new product keys NO LONGER EXTEND your current subscription. It replaced my Microsoft purchased subscription with an Amazon subscription and gave me 1 year from date the new key is applied. So if you are an existing Microsoft subscriber don't buy unless your subscription is ending soon.</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
         <v>3</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Microsoft 365 Family is a good deal. And on-sale it's a steal. However, these new product keys NO LONGER EXTEND your current subscription. It replaced my Microsoft purchased subscription with an Amazon subscription and gave me 1 year from date the new key is applied. So if you are an existing Microsoft subscriber don't buy unless your subscription is ending soon.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Kathy McGlone</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Beware - No longer extends current subscription</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2131,25 +2729,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>54</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Renew Office Subscription Without Giving Microsoft Your Credit Card</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>PNg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>I renew my Microsoft 365 subscription by purchasing through Amazon nowadays because I don't want my credit card number with so many online vendors. I also do it because I don't want Microsoft to automatically renew my subscription if there's a better alternative in the future. For now, Microsoft 365 is good enough for my needs at work and at home.</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>PNg</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Renew Office Subscription Without Giving Microsoft Your Credit Card</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="n">
+        <v>5</v>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2157,29 +2766,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>55</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Next step instructions.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Instructions on how to apply upgrade needed?</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Instructions on how to apply upgrade needed?</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Next step instructions.</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2187,29 +2807,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>56</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>As advertised!</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>As advertised!</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
         <v>4</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>As advertised!</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>As advertised!</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2221,25 +2852,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>57</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>If you can afford it, this is a value purchase, apart from 6 users, you each also get 1TB cloud storage, giving access to documents wherever. Very handy if you are working from home.</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Customer</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="n">
+        <v>5</v>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2247,29 +2889,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>58</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>You are stuck with it, just grit your teeth and buy it</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>peter meyers</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>The transaction went flawlessly and I can continue to curse Microsoft for another year. But why oh why do the feel they have to play the hide the menus somewhere new game every year or so? And why torture me by putting the menus and keystrokes in different places on various platforms, even within the Windows operating environment. Office on windows server is different than windows 10 on my lappy and different still on Windows 7, not just the menus but also things like function keys! Would drive me nuts if I wasnt already nutty</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
         <v>3</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>The transaction went flawlessly and I can continue to curse Microsoft for another year. But why oh why do the feel they have to play the hide the menus somewhere new game every year or so? And why torture me by putting the menus and keystrokes in different places on various platforms, even within the Windows operating environment. Office on windows server is different than windows 10 on my lappy and different still on Windows 7, not just the menus but also things like function keys! Would drive me nuts if I wasnt already nutty</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>peter meyers</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>You are stuck with it, just grit your teeth and buy it</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>3 people found this helpful</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2281,25 +2934,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>59</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Just click activate, it's easy from there</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>Easy to install. I already have the 1 license version and was nervous about upgrading, not sure how it would be. However, it's easy. All I did was click the activate link in the email Amazon sent me. It had me sign in to my Microsoft account and that was it. My office version is upgraded to the 6 user license and 1 year was added. I had 1 month left and now I have 13 months.</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Just click activate, it's easy from there</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="n">
+        <v>5</v>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2311,25 +2975,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>60</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Office 365 family bundle is excellent and worth the money.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Rudy Acosta</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>I like the OneNote on the cloud</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Rudy Acosta</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Office 365 family bundle is excellent and worth the money.</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2337,29 +3012,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>61</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Making word processing expensive and hard to process</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Mitchell McCarrell</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Very difficult to access. Old days once Word paid for, it was just right there to use, no problem. Never that easy with 360.</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
         <v>1</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Very difficult to access. Old days once Word paid for, it was just right there to use, no problem. Never that easy with 360.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Mitchell McCarrell</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Making word processing expensive and hard to process</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2371,26 +3057,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>62</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Long Time User - Love the new Subscription Option</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Gregory J Semple</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>I've used Office products for 20 years now. I typically would get the updates quite frequently but since the subscription base feature is available I've switched to the Family plan.
 I upgraded from the Personal to the Family and had no issues in the change. Pretty seamless and pain free.</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Gregory J Semple</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Long Time User - Love the new Subscription Option</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2402,25 +3099,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>63</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Automatic annual renew</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Gerardo Peña-Rivera</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>Is great that Office 365 can renew automatically. My wife, my 3 kids and I used it.</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Gerardo Peña-Rivera</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Automatic annual renew</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2432,25 +3140,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>64</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Great price.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Nat</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>The best of Office 365 for Mac products. The Mac version looks one millions times better on the Mac than on Windows.</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Nat</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Great price.</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="n">
+        <v>5</v>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2458,31 +3177,42 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>65</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>BIG MISTAKE!!! Extending my MS O365 Subscription with Amazon TRAPPED my O365 Account to Amazon</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>BCU</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>I purchased a discounted 1 year extension and the product key extended my subscription as expected, however, as soon as I entered the key, my subscription management was moved from Microsoft to Amazon. Now when I'm at Microsoft's web site and I choose the link to "Manage" Microsoft 365 Family I get redirected to Amazon's subscription page. I can no longer see the details of my subscription on Microsoft's web page. I cannot find a way to enter a key from a different retailer. As far as I can tell, I'm now LOCKED to Amazon subscription services. I feel this is very unethical way to lock an account to a specific retailer and trap the user at the full subscription price.
 At this point, it appears as though I will have to allow the subscription to expire and open a new subscription with a different user name in order to separate my account from Amazon's subscription management. I'm extremely disappointed and frustrated about this - it is sneaky.
 If I find out how to fix this or return my subscription management back to Microsoft's office web site, I will update this review.</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>BCU</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>BIG MISTAKE!!! Extending my MS O365 Subscription with Amazon TRAPPED my O365 Account to Amazon</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>6 people found this helpful</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2494,25 +3224,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>66</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Excelente</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Daymara Gonzalez</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>Es muy fácil la adaptación y tiene muchas novedades que te facilitan el trabajo</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Daymara Gonzalez</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Excelente</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="n">
+        <v>5</v>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2520,29 +3261,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>67</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>no support on the phone</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Julia Dickinson</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I cannot get an activation code and we ordered another computer in June and it had Microsoft on it with someone else name, now we are locked out of the Microsoft that we bought in September 2, 2023 and can't seem to ask for a refund. This is the most messed up situation I've ever seen</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
         <v>1</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>I cannot get an activation code and we ordered another computer in June and it had Microsoft on it with someone else name, now we are locked out of the Microsoft that we bought in September 2, 2023 and can't seem to ask for a refund. This is the most messed up situation I've ever seen</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Julia Dickinson</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>no support on the phone</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2554,25 +3306,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>68</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Microsoft 365 family, 12 months subscription</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>dolphins0916</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>I purchased the family one. I have no issues with it. I received it right away, was activated right away, easy to share with my husband immediately. I also downloaded all on my phone. Was same price as buying it through Microsoft by the way.</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>dolphins0916</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Microsoft 365 family, 12 months subscription</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="n">
+        <v>5</v>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2580,30 +3343,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B70" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>69</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>You're locked into Amazon for future renewals</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Pete Mitchell</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>Be aware that if you purchase this product from Amazon, your Office 365 license will be managed by them. If you want to purchase codes from Microsoft (if you get a discount through your employer, for example), you cannot. You'll have to cancel your Office 365 sub @ Amazon before you can.
 Note - Amazon will not refund you anything if you cancel, so you best bet is to turn off auto-renewal and purchase from Microsoft after it expires.</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Pete Mitchell</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>You're locked into Amazon for future renewals</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2611,31 +3385,42 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B71" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>70</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>... the 2003 version and upgraded to 2010 and was happy with it</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>James Kron</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
         <is>
           <t>I have used Microsoft office since the 2003 version and upgraded to 2010 and was happy with it. Frankly, I liked Office 2010 better than Office 365. I'll never understand why Microsoft has to move everything around when they release a new version. It's kind of like say "I think I'll reverse the brake and the gas pedal on a car just because it's different."
 My real complaint is with the subscription system. I had the 2010 version bought on a disk with a key number and 3 installs and kept it through multiple computer upgrades. But this time Microsoft would not let me reactivate my perfectly serviceable 2010 version when I bought a new computer. The old Office 2010 was perfectly fine, and arguably better. Office 365 added no useful changes, but suddenly I had to buy a subscription every year just to replace a system that wasn't broken.
 My office uses Microsoft, so I don't have meaningful change, so I'm stuck, but that doesn't mean I like it.</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>James Kron</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>... the 2003 version and upgraded to 2010 and was happy with it</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>116 people found this helpful</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2643,29 +3428,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
+        <v>5</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>71</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>incredibly frustrating, too complicated, DON'T BUY AT ALL AND ESPECIALLY NOT AMAZON</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Rketchone</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Paid to instantly download - there are so many menus, password, verification, what your blood type- incredibly hard to figure out what is going on- cant cancel it and get your money back either. I still cant get anything to work...And Amazon adds to the confusion -what a circle jerk!</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
         <v>1</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Paid to instantly download - there are so many menus, password, verification, what your blood type- incredibly hard to figure out what is going on- cant cancel it and get your money back either. I still cant get anything to work...And Amazon adds to the confusion -what a circle jerk!</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Rketchone</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>incredibly frustrating, too complicated, DON'T BUY AT ALL AND ESPECIALLY NOT AMAZON</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>3 people found this helpful</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2673,29 +3469,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
+        <v>5</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>72</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>DO NOT BUY THIS</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Derek</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Beware, if you've bought this before, it is not what it used to be. You used to be able to just take the digital registration code from amazon and extend your Microsoft 365 subscription by 12 months. If you buy this and redeem the activation code any remaining time on your existing office 365 subscription will be lost. Thanks Amazon, I lost 2 months worth of Microsoft 365 service that I had remaining. Microsoft's system will relinquish financial control of your subscription and everything will need to be managed via Amazon going forward. And surprise, you are now signed up for an annual renewing subscription through Amazon, not Microsoft. I would only ever buy from Amazon when they had this on sale, I didn't want an ongoing subscription. I've since canceled auto-renewing of this subscription with Amazon. I can only hope that once my new subscription term is over in 1 year Microsoft will let me disconnect Amazon's subscription system from my Microsoft 365 account. DO NOT BUY.</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
         <v>1</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Beware, if you've bought this before, it is not what it used to be. You used to be able to just take the digital registration code from amazon and extend your Microsoft 365 subscription by 12 months. If you buy this and redeem the activation code any remaining time on your existing office 365 subscription will be lost. Thanks Amazon, I lost 2 months worth of Microsoft 365 service that I had remaining. Microsoft's system will relinquish financial control of your subscription and everything will need to be managed via Amazon going forward. And surprise, you are now signed up for an annual renewing subscription through Amazon, not Microsoft. I would only ever buy from Amazon when they had this on sale, I didn't want an ongoing subscription. I've since canceled auto-renewing of this subscription with Amazon. I can only hope that once my new subscription term is over in 1 year Microsoft will let me disconnect Amazon's subscription system from my Microsoft 365 account. DO NOT BUY.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Derek</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>DO NOT BUY THIS</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>5 people found this helpful</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2707,25 +3514,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>73</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Best Office Suite</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Jay</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>Very good price $59.99. I had an existing subscription and this was added to it. Had to wait several days before I saw the update. Very happy with the purchase.</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Jay</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Best Office Suite</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="n">
+        <v>5</v>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2737,25 +3555,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>74</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Very easy to purchase and upload</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>OPA Butch</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>Easy to purchase and to upload.</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>OPA Butch</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Very easy to purchase and upload</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2767,25 +3596,36 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>75</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Works basically the same as the older version</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Marc McCord</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>I upgraded to WIN10 and had to get a new copy of Office. Not a big learning curve. Loaded easy. A bonus that you get 5 copies with one license so I put it on another laptop. Almost a steal for $99. And the world runs on Office.</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Marc McCord</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Works basically the same as the older version</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="n">
+        <v>5</v>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2797,25 +3637,36 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>76</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Works Great, Easy to Install, Just Read the Directions</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Trader John</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>This works quite well. As long as one follows the directions, the download and installation process is quick and simple. I use Outlook, Word, Excel and Access regularly. Very shortly after purchase - I was able to download and install this on two computers on my household. If you need the Office suite on more than one computer, this is the way to go.</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Trader John</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Works Great, Easy to Install, Just Read the Directions</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="n">
+        <v>5</v>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>17 people found this helpful</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2827,26 +3678,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>77</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>WRONG Changing This --- Do not Buy -- Very Misleading You can only load on one device.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>STLGUY</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>I said below before I engaged my brain and simply wen out to Microsoft signed and saw my Pc and laptop and downloaded the software. Forget what I was trying to do. "Bought with Surface Go. It would not let me download to my PC or laptop.
 When they say 6 users they mean 6 different email addresses not 6 different devices."</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>STLGUY</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>WRONG Changing This --- Do not Buy -- Very Misleading You can only load on one device.</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="n">
+        <v>5</v>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>169 people found this helpful</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2858,25 +3720,36 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>78</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Couldn't be much easier...</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>HMS Warspite</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>Works as advertised. I downloaded the Office 365 Home suite onto a new computer following the directions. No fuss, no muss, seems to work just fine. Recommended, if it's what you need.</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>HMS Warspite</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Couldn't be much easier...</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="n">
+        <v>5</v>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2888,25 +3761,36 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>79</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Linking and sharing and cloud storage are strong points..</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>John Daniel</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>So far so good. Significant changes from my last version but no problems with the install on my new macbook pro. Everything is fast and functional. I have a microsoft account. My background is IT. I'm a technical type as well as artistic.</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>John Daniel</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Linking and sharing and cloud storage are strong points..</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2914,9 +3798,27 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B81" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>80</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Code Does Not Redeem - Avoid!</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
         <is>
           <t>When I tried to redeem the provided code, via three different methods, the Microsoft activation server repeatedly rejected the code with a message to "try again later". Long story short, it NEVER activated, and I lost my money.
 When I contacted Amazon Customer Service via chat, they LIED to me that they had processed a refund that never arrived.
@@ -2924,22 +3826,15 @@
 HINT: Never unassign a code from your Microsoft account via Amazon.</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Mark</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Code Does Not Redeem - Avoid!</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2951,25 +3846,36 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>81</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Great purchase</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Debbie</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>Very easy to purchase, can be a little confusing if you have not used Amazon's subscriptions. But otherwise, key is provided and then your computer recognizes it. Purchase is worth $99 since how many of us can operate without Microsoft Office.</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Debbie</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Great purchase</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -2981,25 +3887,36 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>82</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Great Daily Deal!</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Lori Ruff</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>I can't wait until it's time to renew and to get that half- priced deal again!</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Lori Ruff</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Great Daily Deal!</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="n">
+        <v>5</v>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3011,25 +3928,36 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>83</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Excelente paquete</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Cecilio Delgado</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>Muy útil, sale mcho más económico la cantidad indicada. Lo recomiendo</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Cecilio Delgado</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Excelente paquete</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="n">
+        <v>5</v>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3037,30 +3965,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B85" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>84</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Microsoft office 365 for 6 Pcs</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Jerome P. Wicker</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
         <is>
           <t>I would like to have the registration Number to register other Pc's or Ipads that I'll add to the three PCs.
 Regards, Jerry wicker</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Jerome P. Wicker</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Microsoft office 365 for 6 Pcs</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3072,25 +4011,36 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>85</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Good price for a LOT of cloudspace</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>You get 6 accounts, each with 1 TB of cloudspace. (You can even set it up so you can share accross accounts). And you get microsoft office for each of the accounts. Good deal.</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Good price for a LOT of cloudspace</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="n">
+        <v>5</v>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3102,25 +4052,36 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>86</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>I am a happy customer of Microsoft Office 365</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>KC</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>I love the set up and applications are easy to use.</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>KC</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>I am a happy customer of Microsoft Office 365</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="n">
+        <v>5</v>
+      </c>
+      <c r="H87" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3128,9 +4089,27 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B88" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>87</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Apparently CAN NO LONGER use this to Extend an Existing Subscription. ("Twisted Parent" - ???)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>RDK</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
         <is>
           <t>Excellent price on a very good product - but unlike past purchases of MS Office (365) from Amazon this purchase does NOT result in a License Key that can be used to EXTEND an existing subscription, and instead results in a NEW SUB (under our EXISTING MS Account!) that runs CONCURRENTLY with our Existing Sub!
 Am hoping that either Amazon or "The Microsoft Team" will be able to offer a solution, but thus far this has been a Very Frustrating purchase, and IF you hope / plan to EXTEND a current sub, I would watch for some clarification of this issue before laying out your money.....
@@ -3138,22 +4117,15 @@
 What is up with that?? Certainly do not see such terminology shown on the Product Page!</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>RDK</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Apparently CAN NO LONGER use this to Extend an Existing Subscription. ("Twisted Parent" - ???)</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>5 people found this helpful</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3161,29 +4133,40 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
+        <v>5</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>88</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>365 Microsoft Words.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Bob Moore</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Very pleased with the product. Haven't installed on my other computers.</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
         <v>4</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Very pleased with the product. Haven't installed on my other computers.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Bob Moore</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>365 Microsoft Words.</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3191,29 +4174,40 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
+        <v>5</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>89</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>So Far So Good</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>W. Manson</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>The instructions were clear and so far everything is OK. I still have 2 other devices to set up, so it is too early for a full appraisal.</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
         <v>4</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>The instructions were clear and so far everything is OK. I still have 2 other devices to set up, so it is too early for a full appraisal.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>W. Manson</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>So Far So Good</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>3 people found this helpful</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3221,29 +4215,40 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
+        <v>5</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>90</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Amazon sold me uninstallable software and no way to get a refund from them</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>KDY</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>I purchased Microsoft 365 for families a few days ago from Amazon. When I tried to install the software with the product key Amazon gave me, Microsoft said that key was already in use. I found a chat feature on Amazon to try to resolve this and after much texting back and forth, they said they were unable to help me but if I gave them my phone number, someone would call me in two minutes. I gave them my number but nobody ever called. After no response from Amazon, we purchased the program directly from Microsoft and it works fine. I know of no way to get my $108.59 back from Amazon other than to file a dispute with my credit card company. We looked all over the website and could find no way to even ask for a refund. I won't purchase any more software from Amazon.</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
         <v>1</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>I purchased Microsoft 365 for families a few days ago from Amazon. When I tried to install the software with the product key Amazon gave me, Microsoft said that key was already in use. I found a chat feature on Amazon to try to resolve this and after much texting back and forth, they said they were unable to help me but if I gave them my phone number, someone would call me in two minutes. I gave them my number but nobody ever called. After no response from Amazon, we purchased the program directly from Microsoft and it works fine. I know of no way to get my $108.59 back from Amazon other than to file a dispute with my credit card company. We looked all over the website and could find no way to even ask for a refund. I won't purchase any more software from Amazon.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>KDY</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Amazon sold me uninstallable software and no way to get a refund from them</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>8 people found this helpful</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3255,25 +4260,36 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>91</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Works for our entire family</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Dave</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>This was a great deal and I've been able to set it up on my pc, and my wife and kids pc's. Very happy with it.</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Dave</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Works for our entire family</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="n">
+        <v>5</v>
+      </c>
+      <c r="H92" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3285,25 +4301,36 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>92</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Good price for Microsoft Suite Access</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>CJR</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>Bought for family access to Microsoft Suite access. Convenient and worth price.</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>CJR</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Good price for Microsoft Suite Access</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="n">
+        <v>5</v>
+      </c>
+      <c r="H93" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3315,25 +4342,36 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>93</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Share with family members with various devices</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Viejo Madera</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
           <t>Lets family members have network access to software without the need for individual subscriptions; especially useful for uploading and sharing files "in the cloud" for viewing and editing.</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Viejo Madera</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Share with family members with various devices</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="n">
+        <v>5</v>
+      </c>
+      <c r="H94" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3345,25 +4383,36 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>94</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Easy and honest</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Paul B. Kohler</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>I saw the special and jumped right on it. After the purchase, Amazon sent an email to activate my subscription. I clicked it and logged into Microsoft. I now extended my subscription until May 2020. Very nice and easy. Highly recommended.</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Paul B. Kohler</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Easy and honest</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="n">
+        <v>5</v>
+      </c>
+      <c r="H95" t="inlineStr">
         <is>
           <t>2 people found this helpful</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3375,25 +4424,36 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>95</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Works as expected</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>bridgebuddy</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>Installation was fine with no problems. I have used excel, outlook and word so far.</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>bridgebuddy</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Works as expected</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="n">
+        <v>5</v>
+      </c>
+      <c r="H96" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3401,29 +4461,40 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
+        <v>5</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>96</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Product key</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Product key is not working</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
         <v>1</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Product key is not working</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Product key</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3431,29 +4502,40 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
+        <v>5</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>97</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Tax write off, BABY</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Angelo Soriano</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Price seems a little steep but it is a necessity these days if you have any sort of job at all.</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
         <v>4</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Price seems a little steep but it is a necessity these days if you have any sort of job at all.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Angelo Soriano</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Tax write off, BABY</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3461,29 +4543,40 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
+        <v>5</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>98</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Installation of this destroyed all other MS Office applications including Visio.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>drdon</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Installation of this product disabled all earlier versions of office products... including visio. Attempted re-install of visio and it still would not open once installed. Microsoft apparently has blacklisted any older version of any MS office product once this rental version is installed. Even uninstalling this software the old versions could not restored. If you use an older version of visio you will have to purchase the lastest rental version of that as well.</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
         <v>1</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Installation of this product disabled all earlier versions of office products... including visio. Attempted re-install of visio and it still would not open once installed. Microsoft apparently has blacklisted any older version of any MS office product once this rental version is installed. Even uninstalling this software the old versions could not restored. If you use an older version of visio you will have to purchase the lastest rental version of that as well.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>drdon</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Installation of this destroyed all other MS Office applications including Visio.</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>One person found this helpful</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3491,29 +4584,40 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
+        <v>5</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>99</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Cant get to function...Sucks</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Amazon Customer</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Horrible</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
         <v>1</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Horrible</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Amazon Customer</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Cant get to function...Sucks</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
@@ -3525,25 +4629,36 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>Amazon5</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>100</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>COMPLEX DOWNLOAD KEY</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>William Campbell</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>Downloaded product ok, but the key was difficult to get from microsoft site, there is no "Link" as stated by amazon, eventualy the product key was initiated, but have no idea how?</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>William Campbell</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>COMPLEX DOWNLOAD KEY</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="n">
+        <v>5</v>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>0 helpful votes</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>Verified Purchase</t>
         </is>
